--- a/backend/public/PRODUTOS.xlsx
+++ b/backend/public/PRODUTOS.xlsx
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
